--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan-Andrei\Desktop\University\VVSS\Echipa_VVSS\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695D1AB7-58AD-474B-8247-550B45FCB001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E1E885-9F6F-4B6A-9C00-51271B3673EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -300,6 +300,45 @@
   </si>
   <si>
     <t>Main.java, 44 and PaymentAlert.java, 49</t>
+  </si>
+  <si>
+    <t>18.11.2025</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>PaymentAlert.java, lines 47-59</t>
+  </si>
+  <si>
+    <t>Switch statement could be used</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>MenuRepository.java, function readMenu()</t>
+  </si>
+  <si>
+    <t>try-catch-finally should be used, otherwise, the resource is not closed</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>MenuRepository.java and PaymentRepository.java</t>
+  </si>
+  <si>
+    <t>more robust logging than printStackTrace()should be used</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>Method has the same name as class name</t>
+  </si>
+  <si>
+    <t>KitchenGUI, 15</t>
   </si>
 </sst>
 </file>
@@ -537,6 +576,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -579,8 +620,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,8 +929,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J5" sqref="H3:J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,19 +950,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -936,7 +975,7 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="23" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="17">
@@ -947,14 +986,14 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="28"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="23" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3">
@@ -965,14 +1004,14 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="30"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="23" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="3">
@@ -984,19 +1023,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1106,7 +1145,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J17" s="38"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
@@ -1210,8 +1249,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1230,19 +1269,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1255,7 +1294,7 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="23" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="17">
@@ -1266,14 +1305,14 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="23" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3">
@@ -1284,14 +1323,14 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="33"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="23" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="3">
@@ -1303,19 +1342,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1531,17 +1570,17 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="12.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="8.88671875" style="6"/>
     <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="6"/>
@@ -1552,19 +1591,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1577,7 +1616,7 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="23" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="17">
@@ -1588,14 +1627,14 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="34"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="23" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3">
@@ -1606,14 +1645,14 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="36"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="23" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="3">
@@ -1625,15 +1664,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1649,40 +1692,64 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
@@ -1842,7 +1909,9 @@
         <v>8</v>
       </c>
       <c r="D32" s="12"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1865,15 +1934,15 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="12.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
     <col min="5" max="5" width="23.88671875" style="6" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
@@ -1887,19 +1956,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1923,10 +1992,10 @@
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="34"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1941,10 +2010,10 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="25"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1960,10 +2029,10 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2257,11 +2326,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="18">
         <v>1</v>
       </c>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan-Andrei\Desktop\University\VVSS\Echipa_VVSS\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E1E885-9F6F-4B6A-9C00-51271B3673EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B46596B-3E6D-4F23-AD10-56CE0AFFF619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -929,8 +929,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1249,7 +1249,7 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1692,7 +1692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
